--- a/biology/Biologie cellulaire et moléculaire/Marc_Fellous/Marc_Fellous.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marc_Fellous/Marc_Fellous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Fellous, né le 19 août 1938 à La Marsa (Tunisie), est un immunologiste français, docteur d'État de l’université Paris-VII (1978). Élève de Jean Dausset et de François Jacob, il a été interne des Hôpitaux de Paris puis, en 1981, professeur de génétique à l’université Paris-VII et chef de l'Unité d'Immunogénétique humaine à l'Institut Pasteur.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a été nommé professeur à l’Institut Pasteur en 1992 et a dirigé plusieurs unités INSERM.
 Il a enseigné la génétique en 1er et 2e cycle et a eu la responsabilité du DEA de génétique humaine de l’université Paris-VII avec Gérard Buttin de 1981 à 2003.
 Il a créé en France une école sur le déterminisme du sexe en encadrant plus de 15 thèses.
 Il a été membre du Conseil scientifique de l'INSERM de 1979 à 1983, ainsi que de plusieurs autres conseils ou instances scientifiques.
-Sur le volet des OGM, il fut président de juillet 1998 à 2007 de la Commission de génie biologique (CGB) chargée d'évaluer les risques d'utilisation des OGM[1], et il fut président de l'Association française des biotechnologies végétales (AFBV), association de promotion des biotechnologies végétales et des OGM[2].
+Sur le volet des OGM, il fut président de juillet 1998 à 2007 de la Commission de génie biologique (CGB) chargée d'évaluer les risques d'utilisation des OGM, et il fut président de l'Association française des biotechnologies végétales (AFBV), association de promotion des biotechnologies végétales et des OGM.
 De 2003 à ce jour, il est professeur émérite de l’université Paris-Diderot
 Il a été l’organisateur des Rencontres interdisciplinaires de Méribel de 1983 à 1999.
 Il a développé plusieurs programmes en collaboration avec l’Amérique du Sud, l’Afrique du Nord et le Moyen-Orient où il est fréquemment invité à donner des conférences.
@@ -556,7 +570,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lauréat de la Faculté de médecine de Paris 1967
 Prix de thèse de médecine : médaille d’argent, 1967
@@ -564,9 +580,43 @@
 Grand prix d’État de l'Académie des sciences, 1980
 Docteur honoris causa de l'uuniversité Trujillo de Lima (Pérou), 2004
 Grand prix de la Reproduction Society Tempa, États-Unis, 2008
-Médaille d'or de l'Académie d'agriculture de France, 2009
-Décoration
- Chevalier de l'ordre national du Mérite, 2003</t>
+Médaille d'or de l'Académie d'agriculture de France, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marc_Fellous</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Fellous</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre national du Mérite, 2003</t>
         </is>
       </c>
     </row>
